--- a/product backlog p3.xlsx
+++ b/product backlog p3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cosas de gente responsable\Universidad\Tercero\PSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35EA5F4-809A-46CD-BC43-DB7EBE714E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48CA06-F32B-4F7D-AC92-4241BC6BB103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C14B7233-EDC6-437B-8B0D-2BB4A6519CA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>Dossier publicitario</t>
   </si>
@@ -160,6 +160,72 @@
   </si>
   <si>
     <t>Sobre</t>
+  </si>
+  <si>
+    <t>Criterio de validación</t>
+  </si>
+  <si>
+    <t>Se tendrá un listado de los participantes del proyecto.</t>
+  </si>
+  <si>
+    <t>Se habrá realizado un dossier con los principales datos de nuestra empresa.</t>
+  </si>
+  <si>
+    <t>Se habrá realizado un documento que garantice el cumplimiento del anexo correspondiente a cada apartado.</t>
+  </si>
+  <si>
+    <t>Se tendrá el resumen ejecutivo de todas las actividades de la empresa.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Se redactará un documento explicativo del plan programado para facilitar la asimilación y la devolución del sistema por parte del cliente.</t>
+  </si>
+  <si>
+    <t>Se redactará un documento con el plan que se tiene programado para garantizar que se seguirá el funcionamiento del servicio.</t>
+  </si>
+  <si>
+    <t>Se tendrá un documento explicativo de la metodología que seguirá el grupo de trabajo asignado al proyecto durante el desarrollo de la aplicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se tendrá un documento desarrollando el presupuesto que se pide a cambio de la realización del proyecto. </t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>En curso</t>
+  </si>
+  <si>
+    <t>Por hacer</t>
+  </si>
+  <si>
+    <t>Se redactará un documento que exponga la experiencia de cada uno de los integrantes del grupo de trabajo.</t>
+  </si>
+  <si>
+    <t>Se redactará un documento que exponga la preparación de cada uno de los integrantes del grupo de trabajo.</t>
+  </si>
+  <si>
+    <t>Se tendrá un documento con las titulaciones de cada uno de los integrantes del grupo de trabajo</t>
+  </si>
+  <si>
+    <t>Se redactará un documento en el que se detalle el cumplimiento de las propuestas aplicación SIAMES.</t>
+  </si>
+  <si>
+    <t>Se redactará un documento en el que se detalle el cumplimiento de las propuestas aplicación GDPU/GDPB.</t>
+  </si>
+  <si>
+    <t>Preparación y exposición de la propuesta</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Se prepará una exposición de todas las partes de nuestra propuesta, para posteriormente exponerla en clase.</t>
   </si>
 </sst>
 </file>
@@ -219,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -231,6 +297,100 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -249,17 +409,72 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -578,361 +793,543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8737232F-F481-4A4D-98C0-AA2759F8B248}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="47.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="48.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="4">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="4">
         <v>3</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="H19" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="4">
+        <v>7</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="4">
         <v>3</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="4">
+        <v>7</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="4">
         <v>3</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="4">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="4">
         <v>3</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="E2:E12"/>
+  <mergeCells count="6">
+    <mergeCell ref="E4:E12"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="H2:H12"/>
+    <mergeCell ref="F4:F12"/>
+    <mergeCell ref="G4:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/product backlog p3.xlsx
+++ b/product backlog p3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cosas de gente responsable\Universidad\Tercero\PSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48CA06-F32B-4F7D-AC92-4241BC6BB103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5963EB-775D-4A09-98A2-5CD1776E67BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C14B7233-EDC6-437B-8B0D-2BB4A6519CA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>Dossier publicitario</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>Hecho</t>
-  </si>
-  <si>
-    <t>En curso</t>
   </si>
   <si>
     <t>Por hacer</t>
@@ -795,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8737232F-F481-4A4D-98C0-AA2759F8B248}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1158,7 +1155,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1170,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -1182,7 +1179,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1194,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -1206,7 +1203,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -1232,7 +1229,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -1244,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="4">
         <v>3</v>
@@ -1256,7 +1253,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -1268,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
@@ -1280,7 +1277,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1292,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
@@ -1301,22 +1298,22 @@
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="E23" s="4">
         <v>9</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="4">
         <v>3</v>

--- a/product backlog p3.xlsx
+++ b/product backlog p3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cosas de gente responsable\Universidad\Tercero\PSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5963EB-775D-4A09-98A2-5CD1776E67BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45438300-665C-496A-8BD6-1D6E17D92E32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C14B7233-EDC6-437B-8B0D-2BB4A6519CA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>Dossier publicitario</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>Hecho</t>
-  </si>
-  <si>
-    <t>Por hacer</t>
   </si>
   <si>
     <t>Se redactará un documento que exponga la experiencia de cada uno de los integrantes del grupo de trabajo.</t>
@@ -793,7 +790,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -1191,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -1203,7 +1200,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -1229,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -1241,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="4">
         <v>3</v>
@@ -1253,7 +1250,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -1265,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
@@ -1277,7 +1274,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1289,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
@@ -1298,22 +1295,22 @@
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="E23" s="4">
         <v>9</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="4">
         <v>3</v>
